--- a/Puentes_CAPUFE.xlsx
+++ b/Puentes_CAPUFE.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F57C3F-49FC-447F-B76D-FFF9837657FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906400D7-B566-48CB-BB43-CD8EE0BBE4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_12.3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_11!$B$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_12.3'!$B$4:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -343,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -356,7 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
@@ -364,7 +363,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -606,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="A2:G38"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -671,16 +669,16 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
         <v>189</v>
       </c>
     </row>
@@ -691,7 +689,7 @@
       <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="6">
@@ -705,16 +703,16 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <v>50</v>
       </c>
     </row>
@@ -739,16 +737,16 @@
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <v>113</v>
       </c>
     </row>
@@ -773,16 +771,16 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>179</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>0</v>
       </c>
     </row>
@@ -807,16 +805,16 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>288</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>0</v>
       </c>
     </row>
@@ -841,16 +839,16 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>327</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>0</v>
       </c>
     </row>
@@ -875,16 +873,16 @@
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>348</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>0</v>
       </c>
     </row>
@@ -909,16 +907,16 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
         <v>159</v>
       </c>
     </row>
@@ -943,16 +941,16 @@
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
         <v>144</v>
       </c>
     </row>
@@ -977,16 +975,16 @@
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
         <v>155</v>
       </c>
     </row>
@@ -1011,16 +1009,16 @@
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26">
         <v>175</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1045,16 +1043,16 @@
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <v>530</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1079,16 +1077,16 @@
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30">
         <v>213</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1113,39 +1111,38 @@
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32">
         <v>368</v>
       </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>590</v>
       </c>
-      <c r="F33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="14" t="s">
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="4"/>
@@ -1153,22 +1150,22 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F37" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F38" s="5" t="s">
         <v>1</v>
       </c>

--- a/Puentes_CAPUFE.xlsx
+++ b/Puentes_CAPUFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906400D7-B566-48CB-BB43-CD8EE0BBE4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E07746-4C8C-4D3C-B9D9-36BE30A165D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_12.3" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Coahuila de Zaragoza</t>
   </si>
@@ -198,6 +192,9 @@
   </si>
   <si>
     <t>(Metros)</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -623,40 +620,40 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6">
         <v>3861</v>
@@ -667,13 +664,13 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -684,13 +681,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -701,13 +698,13 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -718,13 +715,13 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -735,13 +732,13 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -752,13 +749,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6">
         <v>91</v>
@@ -769,13 +766,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>179</v>
@@ -786,13 +783,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6">
         <v>164</v>
@@ -803,13 +800,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>288</v>
@@ -820,13 +817,13 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6">
         <v>433</v>
@@ -837,13 +834,13 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>327</v>
@@ -854,13 +851,13 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="6">
         <v>254</v>
@@ -871,13 +868,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>348</v>
@@ -888,13 +885,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -905,13 +902,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -922,13 +919,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
@@ -939,13 +936,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -956,13 +953,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
@@ -973,13 +970,13 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -990,13 +987,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -1007,13 +1004,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>175</v>
@@ -1024,13 +1021,13 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="6">
         <v>1543</v>
@@ -1041,13 +1038,13 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>530</v>
@@ -1058,13 +1055,13 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="6">
         <v>1170</v>
@@ -1075,13 +1072,13 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>213</v>
@@ -1092,13 +1089,13 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="6">
         <v>179</v>
@@ -1109,13 +1106,13 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>368</v>
@@ -1126,13 +1123,13 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="10">
         <v>590</v>
@@ -1143,7 +1140,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1152,23 +1149,22 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F37" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F38" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="F38" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Puentes_CAPUFE.xlsx
+++ b/Puentes_CAPUFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E07746-4C8C-4D3C-B9D9-36BE30A165D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A783DE-A8E5-4BC1-A104-01AD636E5CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>

--- a/Puentes_CAPUFE.xlsx
+++ b/Puentes_CAPUFE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A783DE-A8E5-4BC1-A104-01AD636E5CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DBD8DD-60B5-4940-A4BB-3F24C69DFB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -194,7 +194,7 @@
     <t>(Metros)</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -205,33 +205,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +239,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,7 +381,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,28 +389,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -419,14 +419,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -607,28 +607,28 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -645,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -679,7 +679,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -696,7 +696,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -713,7 +713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -730,7 +730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -747,7 +747,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
@@ -900,7 +900,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
@@ -917,7 +917,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -934,7 +934,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -951,7 +951,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
@@ -968,7 +968,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
@@ -985,7 +985,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>51</v>
       </c>
@@ -1147,23 +1147,23 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F38" s="5"/>
     </row>
   </sheetData>

--- a/Puentes_CAPUFE.xlsx
+++ b/Puentes_CAPUFE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DBD8DD-60B5-4940-A4BB-3F24C69DFB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC282C-2B7C-409E-86BC-0795C9B0C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -201,19 +201,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -229,18 +223,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -338,28 +348,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -607,28 +619,29 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -645,529 +658,529 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>3861</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="8">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="D9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="8">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>91</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>179</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>164</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>288</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>433</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>327</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>254</v>
       </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>348</v>
       </c>
       <c r="F18" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="8">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="6" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="8">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="6" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>0</v>
       </c>
       <c r="F24" s="8">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="6" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>175</v>
       </c>
       <c r="F26" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="6" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>1543</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>530</v>
       </c>
       <c r="F28" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>1170</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>213</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="6" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>179</v>
       </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>368</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="10" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="11">
         <v>590</v>
       </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="5"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F38" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Puentes_CAPUFE.xlsx
+++ b/Puentes_CAPUFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC282C-2B7C-409E-86BC-0795C9B0C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC12B522-47CF-4204-92BF-B28CE4FFF07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_12.3" sheetId="1" r:id="rId1"/>
@@ -188,20 +188,20 @@
     <t>Puente</t>
   </si>
   <si>
-    <t>Puentes a cargo de CAPUFE 2023</t>
-  </si>
-  <si>
     <t>(Metros)</t>
   </si>
   <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Puentes a cargo de CAPUFE 2024</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2025.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,7 +619,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
@@ -631,17 +631,17 @@
     <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="18">
       <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -658,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6">
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -692,7 +692,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -709,7 +709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6">
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -726,7 +726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6">
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -743,7 +743,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6">
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -760,7 +760,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6">
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6">
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6">
       <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6">
       <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6">
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6">
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
@@ -913,7 +913,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6">
       <c r="B20" s="7" t="s">
         <v>13</v>
       </c>
@@ -930,7 +930,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6">
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
@@ -947,7 +947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6">
       <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
@@ -964,7 +964,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6">
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
@@ -981,7 +981,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6">
       <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
@@ -998,7 +998,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6">
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6">
       <c r="B26" s="7" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6">
       <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6">
       <c r="B28" s="7" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6">
       <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6">
       <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6">
       <c r="B32" s="7" t="s">
         <v>13</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7">
       <c r="B33" s="10" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7">
       <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
@@ -1160,23 +1160,23 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7">
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7">
       <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7">
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7">
       <c r="F38" s="13"/>
     </row>
   </sheetData>
